--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1F7ACE-A816-4834-AD94-8FF74F87E66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B3A566-C644-4C6F-886D-160C5E5C4301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
     <sheet name="スキーマ" sheetId="2" r:id="rId2"/>
+    <sheet name="ソフト構造" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>今のスキーマ</t>
     <rPh sb="0" eb="1">
@@ -39,6 +40,14 @@
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バック</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -70,10 +79,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -82,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -578,6 +597,2106 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138791</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>217716</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="コネクタ: カギ線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0416E170-0143-40D3-9DCE-BDCE1C4EFAB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4663166" y="1918607"/>
+          <a:ext cx="4841425" cy="2040"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>36058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="コネクタ: カギ線 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A40C5F-1AC5-4AA0-A80F-A7881F142F70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="0"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="16122083" y="2011475"/>
+          <a:ext cx="2324782" cy="2183947"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>74839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BF0C77-06ED-45A3-AA12-FD91D9A5772D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8107136" y="7170964"/>
+          <a:ext cx="3571874" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>フォルダ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2CCF542-2FDD-4F43-8171-881A9EEA5442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8497660" y="7621361"/>
+          <a:ext cx="2435678" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1363</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>232682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>204110</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB77E0A6-CA92-481F-BCAA-674C06FD89FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9288238" y="470807"/>
+          <a:ext cx="2345872" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>routers</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>217716</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45972B82-8201-4F63-A5D1-20A8236A1BF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9504591" y="966107"/>
+          <a:ext cx="1585230" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>memo.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>フロント・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>バック間の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ルーティング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>240847</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA78DE7-A70A-4266-8415-345FF3FAF211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12385222" y="442232"/>
+          <a:ext cx="2392136" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>cruds</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>240847</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>223157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>223157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A035AF-9149-4695-BACD-096DF5D7C544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12623347" y="937532"/>
+          <a:ext cx="1426029" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>memo.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CRUD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>133353</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>13609</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D7E9B1-9A1D-4298-B016-DB0C7C4A3229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038978" y="487134"/>
+          <a:ext cx="1785256" cy="2690133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>schemas</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>73481</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>236762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>236762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2C6A5B-AC0E-4C05-872D-252B181DEEBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7217231" y="951137"/>
+          <a:ext cx="1383846" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>memo.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>フロント・バック間のデータ形式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>170089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>227239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D430EC-CF61-4510-866B-2766A4583C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6906985" y="8504464"/>
+          <a:ext cx="1200151" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>223157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>240847</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="コネクタ: カギ線 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81082AC6-A0D4-4B52-93A7-2DD2F40F34D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11089821" y="1890032"/>
+          <a:ext cx="1533526" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>186419</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>131991</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342453A4-B11F-4752-89AF-AD133771E19E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11140169" y="1732190"/>
+          <a:ext cx="1136197" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CRUD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>223157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>40823</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>36057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD7D533F-F2D6-4FF5-99D0-925A31CA8C2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14049376" y="1890032"/>
+          <a:ext cx="4327072" cy="51025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>231323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 磁気ディスク 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2F5EDE-C604-4045-8F3B-50E1133BD4BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20254232" y="932090"/>
+          <a:ext cx="2211161" cy="1918608"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>29935</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>17689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39A8C13-F790-4543-BE2C-2659941DAFE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15253607" y="455839"/>
+          <a:ext cx="2397578" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>models</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>48986</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>198664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>4082</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>198664</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DABDEB7-0B4F-4D61-A82C-2E4D80BFE887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15527111" y="913039"/>
+          <a:ext cx="1383846" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>memo.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>ORM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>用の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>データ型</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D64C2E-D318-40E7-BBA0-CEB6816E9230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15348857" y="4265839"/>
+          <a:ext cx="1694090" cy="510268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>init_database.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>40823</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>217716</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8CDDBE-C6AB-44B6-A8A7-15FF8EA29AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15757073" y="3551463"/>
+          <a:ext cx="1605643" cy="326572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データベース初期化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>217716</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D37C54-0042-4844-875E-220C0895B2F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9504591" y="3823608"/>
+          <a:ext cx="2163535" cy="1367518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>main.py</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>108860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2230F3B2-488E-4F2F-878C-C0C753E1DCD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="0"/>
+          <a:endCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9963832" y="3201080"/>
+          <a:ext cx="952501" cy="292555"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA2E644-1FDE-4D4D-B8D4-0AB5866E343B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10164536" y="3326947"/>
+          <a:ext cx="1136197" cy="307521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ルーター設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>40823</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>194580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>122466</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1C6CF8-9293-4BB7-9CCC-1EBE0CB8E496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18376448" y="432705"/>
+          <a:ext cx="1510393" cy="3023508"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>db.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>db</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>接続</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>セッション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>122466</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>224519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>36057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="コネクタ: カギ線 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECE7851-639C-4453-AC55-68DF8A8F55CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19886841" y="1891394"/>
+          <a:ext cx="367391" cy="49663"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8034BB9-02D4-4797-9038-2C90E6B747EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5347606" y="1006929"/>
+          <a:ext cx="1428750" cy="1843768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>指定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>HTTP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>プロトコルでやりとり。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>body</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>JSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>形式</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293BA3E4-F039-49C8-B887-9846D3857A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="251731" y="507545"/>
+          <a:ext cx="1231447" cy="2805793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>HTML</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138791</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4081</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9E21FD-5168-4CC6-9543-917451363C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2871107" y="503464"/>
+          <a:ext cx="1792059" cy="2834367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>app.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="コネクタ: カギ線 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08B4D6F-080B-42E2-8BC2-A1E4B14A3928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1483178" y="1907039"/>
+          <a:ext cx="1387929" cy="13608"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3253AEA-A5F1-452A-9F6D-1B4F51B54B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1564822" y="521152"/>
+          <a:ext cx="1149804" cy="2724152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>ID,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>セレクタ等で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>情報取得。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>イベントに関数登録。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -864,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6645A3A3-F1C6-4266-98EF-4E0211009A7C}">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -884,4 +3003,32 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33D9D01-FCD6-466E-A65E-7EA43CAF5594}">
+  <dimension ref="C1:AC1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="26" max="26" width="3.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:29">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B3A566-C644-4C6F-886D-160C5E5C4301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16246EF-5932-4362-83D2-BB7416776994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
-    <sheet name="スキーマ" sheetId="2" r:id="rId2"/>
-    <sheet name="ソフト構造" sheetId="3" r:id="rId3"/>
+    <sheet name="ソフト構造" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,21 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>今のスキーマ</t>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>追加スキーマ</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>フロント</t>
     <phoneticPr fontId="1"/>
@@ -2693,6 +2678,153 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
             <a:t>イベントに関数登録。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>204109</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A609C15B-3B06-6DD6-D669-FA6B985FF1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3660322" y="3075215"/>
+          <a:ext cx="1442358" cy="639536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チェックボックス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92F7704-E635-4642-831E-99D9FCEAF8E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7320642" y="3129643"/>
+          <a:ext cx="1442358" cy="639536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チェックボックス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>情報</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2980,37 +3112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6645A3A3-F1C6-4266-98EF-4E0211009A7C}">
-  <dimension ref="B2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33D9D01-FCD6-466E-A65E-7EA43CAF5594}">
   <dimension ref="C1:AC1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
@@ -3020,10 +3126,10 @@
   <sheetData>
     <row r="1" spans="3:29">
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16246EF-5932-4362-83D2-BB7416776994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BC1F78-3CA1-48A6-B9DE-EB9293A156EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
@@ -2717,7 +2717,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="FFC000"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -2787,7 +2787,84 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チェックボックス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>190502</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A4E719-DD25-4806-9615-10BC9D922CE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16872858" y="2966357"/>
+          <a:ext cx="1442358" cy="639536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -3116,7 +3193,7 @@
   <dimension ref="C1:AC1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>

--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BC1F78-3CA1-48A6-B9DE-EB9293A156EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B5628C-90E6-4D64-B8EC-AB7380D49A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
@@ -153,16 +153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -177,7 +177,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8248650" y="2781300"/>
+          <a:off x="8772525" y="2952750"/>
           <a:ext cx="3057525" cy="1019175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -238,16 +238,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -264,7 +264,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5286376" y="3290887"/>
+          <a:off x="5810251" y="3462337"/>
           <a:ext cx="2962275" cy="319087"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -298,34 +298,106 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190509</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95246</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B27F6F-6F84-4784-B7FB-FB396D5F7E68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="5619751"/>
+          <a:ext cx="3057525" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>期日の列を追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE117BC-26B9-4EB0-8397-E40F4433FB87}"/>
+        <xdr:cNvPr id="20" name="コネクタ: カギ線 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA496D01-4CD8-4E1D-9C94-9A5D3A7857E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="1"/>
+          <a:stCxn id="19" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3048009" y="528638"/>
-          <a:ext cx="5210167" cy="42858"/>
+        <a:xfrm rot="10800000">
+          <a:off x="4343400" y="4514853"/>
+          <a:ext cx="3409950" cy="1390649"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -358,23 +430,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889E2EDF-EAF5-4CB5-AA2C-04941D6C9970}"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FCEE8B-1CEB-4A4C-B9D4-E439764B685B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -382,8 +454,153 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8258175" y="190500"/>
-          <a:ext cx="3057525" cy="676275"/>
+          <a:off x="5524500" y="428625"/>
+          <a:ext cx="1533525" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> ・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142889</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166681</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="コネクタ: カギ線 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7214E69-DC44-45A2-950E-674D013EEB70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7048514" y="576262"/>
+          <a:ext cx="1295387" cy="66669"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B01887E-D0F6-4B5B-9DAE-20975C1141FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="390525"/>
+          <a:ext cx="1457325" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -416,37 +633,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Memo </a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>という名前を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ToDo</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に変える</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>関係個所もろもろ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログインページ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -454,23 +643,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B27F6F-6F84-4784-B7FB-FB396D5F7E68}"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA40C074-E233-7CE1-93B8-E5794A628B4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -478,8 +667,396 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7753350" y="5619751"/>
-          <a:ext cx="3057525" cy="571500"/>
+          <a:off x="133349" y="266700"/>
+          <a:ext cx="885825" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E65635-7475-4AF6-AEC4-977BF0304907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="6381750"/>
+          <a:ext cx="1447800" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>105587</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C47BFA4-79B9-81EF-0603-368199550D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="6905625"/>
+          <a:ext cx="5820587" cy="3467584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF106FF-D0A2-4680-B137-0E31141D5C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209676" y="7315200"/>
+          <a:ext cx="1238250" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E5964B-4930-478A-B4A2-538509F5364A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="7848601"/>
+          <a:ext cx="1000125" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>ユーザー名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443BFBE0-D16D-497E-9119-DDFD6C15EE13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="8620126"/>
+          <a:ext cx="1000125" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA29C741-CD78-4451-872E-4CAE22E69540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677275" y="6962775"/>
+          <a:ext cx="2505076" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -513,12 +1090,8 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>期日の列を追加</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン時も流用できないか？</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -526,34 +1099,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>228603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190502</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="コネクタ: カギ線 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA496D01-4CD8-4E1D-9C94-9A5D3A7857E5}"/>
+        <xdr:cNvPr id="24" name="コネクタ: カギ線 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED2535D-16F8-4B4D-8F00-58E110629697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="1"/>
+          <a:stCxn id="23" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4343400" y="4514853"/>
-          <a:ext cx="3409950" cy="1390649"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7105651" y="7177087"/>
+          <a:ext cx="1571625" cy="623887"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3174,14 +3747,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AO44" sqref="AO44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="33" customFormat="1"/>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3192,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33D9D01-FCD6-466E-A65E-7EA43CAF5594}">
   <dimension ref="C1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>

--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B5628C-90E6-4D64-B8EC-AB7380D49A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96E98D-1904-4CF6-A12E-2C8B9C701FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3749,9 +3749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AO44" sqref="AO44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData>

--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96E98D-1904-4CF6-A12E-2C8B9C701FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24A193C-A048-427D-A8B8-27A8C1887206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,15 +516,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>142889</xdr:colOff>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>114303</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>166681</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -535,14 +535,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7048514" y="576262"/>
-          <a:ext cx="1295387" cy="66669"/>
+          <a:off x="7067551" y="566736"/>
+          <a:ext cx="1381127" cy="61914"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>

--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24A193C-A048-427D-A8B8-27A8C1887206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F3E22C-4E08-48EB-9725-DC3F0F0FF2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
     <sheet name="ソフト構造" sheetId="3" r:id="rId2"/>
+    <sheet name="ユーザー情報" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1223,16 +1224,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>231324</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>36058</xdr:rowOff>
+      <xdr:rowOff>36057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>217715</xdr:rowOff>
+      <xdr:colOff>40824</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1250,8 +1251,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="16122083" y="2011475"/>
-          <a:ext cx="2324782" cy="2183947"/>
+          <a:off x="16264959" y="2372065"/>
+          <a:ext cx="3011943" cy="2258786"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1282,16 +1283,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>10885</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>74839</xdr:rowOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>160564</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>160563</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1306,8 +1307,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8107136" y="7170964"/>
-          <a:ext cx="3571874" cy="2667000"/>
+          <a:off x="19020064" y="9266464"/>
+          <a:ext cx="3673928" cy="2741839"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1348,16 +1349,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>1361</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>1361</xdr:rowOff>
+      <xdr:rowOff>178254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>178254</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1372,8 +1373,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8497660" y="7621361"/>
-          <a:ext cx="2435678" cy="1666875"/>
+          <a:off x="19417392" y="9730468"/>
+          <a:ext cx="2503714" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1577,13 +1578,13 @@
       <xdr:col>51</xdr:col>
       <xdr:colOff>240847</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
+      <xdr:rowOff>204106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
       <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>231320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1598,8 +1599,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12385222" y="442232"/>
-          <a:ext cx="2392136" cy="2667000"/>
+          <a:off x="12732204" y="449035"/>
+          <a:ext cx="2466975" cy="5660571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1725,13 +1726,13 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>133353</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>10884</xdr:rowOff>
+      <xdr:rowOff>10883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>13609</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1746,8 +1747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7038978" y="487134"/>
-          <a:ext cx="1785256" cy="2690133"/>
+          <a:off x="7236282" y="500740"/>
+          <a:ext cx="1839684" cy="5636081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1869,16 +1870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1360</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>170089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>227239</xdr:rowOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>151039</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>160564</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>159203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1895,8 +1896,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="6906985" y="8504464"/>
-          <a:ext cx="1200151" cy="533400"/>
+          <a:off x="17785896" y="10633982"/>
+          <a:ext cx="1234168" cy="547007"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2190,13 +2191,13 @@
       <xdr:col>64</xdr:col>
       <xdr:colOff>13607</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>29935</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>17689</xdr:rowOff>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2211,8 +2212,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15253607" y="455839"/>
-          <a:ext cx="2397578" cy="2657475"/>
+          <a:off x="15689036" y="462644"/>
+          <a:ext cx="2966357" cy="3483428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2260,8 +2261,8 @@
       <xdr:rowOff>198664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>4082</xdr:colOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>198664</xdr:rowOff>
     </xdr:to>
@@ -2278,8 +2279,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15527111" y="913039"/>
-          <a:ext cx="1383846" cy="1905000"/>
+          <a:off x="15969343" y="933450"/>
+          <a:ext cx="1025978" cy="1959428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2353,15 +2354,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2376,8 +2377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15348857" y="4265839"/>
-          <a:ext cx="1694090" cy="510268"/>
+          <a:off x="15770679" y="5007429"/>
+          <a:ext cx="1741715" cy="530678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2426,16 +2427,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>40823</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>217713</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>217716</xdr:colOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>149681</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:rowOff>231320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>81645</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2450,8 +2451,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15757073" y="3551463"/>
-          <a:ext cx="1605643" cy="326572"/>
+          <a:off x="15825110" y="4150177"/>
+          <a:ext cx="1646464" cy="340179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3327,16 +3328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3351,7 +3352,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7320642" y="3129643"/>
+          <a:off x="7456714" y="2830286"/>
           <a:ext cx="1442358" cy="639536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3404,16 +3405,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3428,7 +3429,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16872858" y="2966357"/>
+          <a:off x="15811500" y="2775856"/>
           <a:ext cx="1442358" cy="639536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3474,6 +3475,1728 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>情報</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>118382</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC000E4D-DDBF-4181-BCBF-D4D86E2FD6EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7511143" y="3769178"/>
+          <a:ext cx="1424668" cy="1949903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>user.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ユーザー情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>フロント・バック間のデータ形式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>23133</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>223158</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E932F2-1EE4-4613-8DD1-252F44BB4212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13004347" y="3442606"/>
+          <a:ext cx="1424668" cy="1949903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>user.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ユーザー情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CRUD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>186418</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>208190</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A396E44E-4C2C-44CF-B73B-19885037ED74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17131393" y="952501"/>
+          <a:ext cx="1424668" cy="1949903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>user.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ユーザー情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>ORM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>用の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>データ型</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>231324</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="コネクタ: カギ線 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC631E57-9FBB-4C1F-BF7C-7629E4749603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="16206109" y="3347357"/>
+          <a:ext cx="2095500" cy="1224645"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65584"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>189140</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72E8FEA-7C8C-4CDD-8F23-959F1BECB0AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9783536" y="6613071"/>
+          <a:ext cx="2407104" cy="2762249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>auth</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>54426</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6ACCAD-DF1D-4C5C-A21D-FA863870992F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9933214" y="7021286"/>
+          <a:ext cx="1632855" cy="1959429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>memo.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>認証</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D614CD4-44A3-4E86-9E75-C09F61270416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11225893" y="7497535"/>
+          <a:ext cx="2871107" cy="1319893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>認証どうするか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>flask</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ではデコレータで各ページへの遷移時に都度確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCE0F23-3E43-5F01-46C1-8E1CF9B003E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12782551" y="3133726"/>
+          <a:ext cx="2143124" cy="2152648"/>
+          <a:chOff x="2619376" y="1181101"/>
+          <a:chExt cx="2143124" cy="2152648"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="テキスト ボックス 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBC08AF-A7CB-7DB7-9BE0-ABCB222CB44E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2619376" y="1181101"/>
+            <a:ext cx="2133599" cy="495300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+              <a:t>雛形</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキスト ボックス 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA8B5DC-0F54-4F4E-A58D-DACBC399A2AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2619376" y="1676400"/>
+            <a:ext cx="2143124" cy="1657349"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>フィールド</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>a</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>フィールド</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>b</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EECFEB8B-97F2-42BD-AADC-E29083F1B124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2600325" y="1190625"/>
+          <a:ext cx="2752725" cy="2857500"/>
+          <a:chOff x="2619376" y="1181101"/>
+          <a:chExt cx="2135734" cy="2668572"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="テキスト ボックス 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE61DD4-14C8-DCCF-08D6-997CA85D16FC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2619376" y="1181101"/>
+            <a:ext cx="2133599" cy="495300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>Memo</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE0BE94-DC49-CDAE-7532-BB4BF446C48B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2619376" y="1676400"/>
+            <a:ext cx="2135734" cy="2173273"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>メモ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>ID(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>主キー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>):memo_id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>タイトル</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>:title</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>詳細</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>:description</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>チェック状況</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>:is_check</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>作成日時</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>:created_at</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>更新日時</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>:updated_at</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ユーザー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>user_id</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7179C7E8-4C16-A25C-BFA8-3DF923A6C986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10877550" y="6181725"/>
+          <a:ext cx="4591050" cy="3867150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>参考：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー情報</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CREATE TABLE user (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  id INTEGER PRIMARY KEY AUTOINCREMENT,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  username TEXT UNIQUE NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  password TEXT NOT NULL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リストの課題</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CREATE TABLE task(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  id INTEGER PRIMARY KEY AUTOINCREMENT,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  author_id INTEGER NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  title TEXT NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  is_done BOOLEAN,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>  FOREIGN KEY (author_id) REFERENCES user (id)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>);</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7C10A8-CB80-7719-1E48-DB540549F6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12144374" y="971550"/>
+          <a:ext cx="3343275" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ログイン中のユーザーの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Memo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のみ表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>複数人での利用。自分の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Memo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>だけを表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EDE313-D950-EC8C-EAD2-E41D77C88DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7391400" y="1466850"/>
+          <a:ext cx="2609850" cy="2343150"/>
+          <a:chOff x="6677025" y="1181100"/>
+          <a:chExt cx="2609850" cy="2343150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="テキスト ボックス 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C7BD43-CF5F-BE36-D12E-B617D3DB8335}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6677025" y="1181100"/>
+            <a:ext cx="2609850" cy="495300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+              <a:t>User</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5A939F-A1D6-851D-7929-F85884FBC00E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6677025" y="1676400"/>
+            <a:ext cx="2609850" cy="1076326"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>ユーザー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>ID:user_id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>ユーザー名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>:username</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>パスワード</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>:password</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="テキスト ボックス 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD1EF24-9DDA-4D70-ADF8-C7569E2E32FC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6677025" y="2752725"/>
+            <a:ext cx="2609850" cy="771525"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>パスワードハッシュ化処理</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>?()</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03D7EE1-96DD-F9E0-0553-109F73559F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5353050" y="2500313"/>
+          <a:ext cx="2038350" cy="384245"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFED861F-4EE1-6A4E-6071-DE7525BCA3EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457826" y="2581275"/>
+          <a:ext cx="647700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0..*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C089599-FAAE-4406-A3EC-71F34908ADE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="2209800"/>
+          <a:ext cx="523875" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1..*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3747,7 +5470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData>
@@ -3763,9 +5486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33D9D01-FCD6-466E-A65E-7EA43CAF5594}">
   <dimension ref="C1:AC1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
@@ -3785,4 +5506,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5531C4-1F77-409C-8572-78A77EDB26F3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F3E22C-4E08-48EB-9725-DC3F0F0FF2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3FAAFE-B7CB-4456-A194-0C50D7764FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
@@ -1420,13 +1420,13 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>1363</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>232682</xdr:rowOff>
+      <xdr:rowOff>232681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>204110</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42182</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>244927</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1441,8 +1441,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9288238" y="470807"/>
-          <a:ext cx="2345872" cy="2667000"/>
+          <a:off x="9553577" y="477610"/>
+          <a:ext cx="2407104" cy="5645603"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1552,21 +1552,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>フロント・</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>バック間の</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>ルーティング</a:t>
+            <a:t>メインページのルーティング</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1643,15 +1629,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>240847</xdr:colOff>
+      <xdr:colOff>240846</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>223157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>223157</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1666,8 +1652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12623347" y="937532"/>
-          <a:ext cx="1426029" cy="1905000"/>
+          <a:off x="12977132" y="957943"/>
+          <a:ext cx="1949903" cy="1981200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1716,6 +1702,34 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
             <a:t>処理</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t>(schema</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t>model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
+            <a:t>を生成して保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1931,11 +1945,11 @@
       <xdr:col>46</xdr:col>
       <xdr:colOff>136071</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>223157</xdr:rowOff>
+      <xdr:rowOff>234043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>240847</xdr:colOff>
+      <xdr:colOff>240846</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
@@ -1955,8 +1969,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11089821" y="1890032"/>
-          <a:ext cx="1533526" cy="28575"/>
+          <a:off x="11402785" y="1948543"/>
+          <a:ext cx="1574347" cy="24493"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2063,10 +2077,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>223157</xdr:rowOff>
+      <xdr:rowOff>234043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
@@ -2090,8 +2104,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14049376" y="1890032"/>
-          <a:ext cx="4327072" cy="51025"/>
+          <a:off x="14927035" y="1948543"/>
+          <a:ext cx="3973288" cy="46943"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2497,16 +2511,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>217716</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:colOff>27216</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2521,8 +2535,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9504591" y="3823608"/>
-          <a:ext cx="2163535" cy="1367518"/>
+          <a:off x="9797145" y="6817179"/>
+          <a:ext cx="2231571" cy="1156607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2573,9 +2587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>108860</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:colOff>136075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2593,8 +2607,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="9963832" y="3201080"/>
-          <a:ext cx="952501" cy="292555"/>
+          <a:off x="8817431" y="4721678"/>
+          <a:ext cx="3864429" cy="326573"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2627,16 +2641,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>231322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>62593</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>68037</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2651,8 +2665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10164536" y="3326947"/>
-          <a:ext cx="1136197" cy="307521"/>
+          <a:off x="10164536" y="6327322"/>
+          <a:ext cx="1170215" cy="321129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3544,7 +3558,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>user.py</a:t>
+            <a:t>auth.py</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3570,15 +3584,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>23133</xdr:colOff>
+      <xdr:colOff>23132</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>13606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>223158</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>4080</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3593,8 +3607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13004347" y="3442606"/>
-          <a:ext cx="1424668" cy="1949903"/>
+          <a:off x="13004346" y="3442606"/>
+          <a:ext cx="1922689" cy="1945823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3631,7 +3645,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>user.py</a:t>
+            <a:t>auth.py</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3723,7 +3737,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>user.py</a:t>
+            <a:t>auth.py</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3820,158 +3834,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>189140</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>68034</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="テキスト ボックス 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72E8FEA-7C8C-4CDD-8F23-959F1BECB0AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9783536" y="6613071"/>
-          <a:ext cx="2407104" cy="2762249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>auth</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>54426</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6ACCAD-DF1D-4C5C-A21D-FA863870992F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9933214" y="7021286"/>
-          <a:ext cx="1632855" cy="1959429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>memo.py</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>認証</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3986,7 +3858,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11225893" y="7497535"/>
+          <a:off x="12219214" y="7810499"/>
           <a:ext cx="2871107" cy="1319893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4035,6 +3907,257 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
             <a:t>ではデコレータで各ページへの遷移時に都度確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>217717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E33CF2-55FF-4429-AA7D-916925E05261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7007679" y="8300360"/>
+          <a:ext cx="2871107" cy="1020534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ログイン中の各ページの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>は？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>名含む形が一般的か？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>220436</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>175533</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2621FD-E3BC-4D2B-9686-7279598DA9E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10017579" y="3744685"/>
+          <a:ext cx="1424668" cy="1949903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>auth.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>認証ページのルーティング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283A115D-16CF-49EC-8BE3-D9508C1D1E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10409464" y="9307286"/>
+          <a:ext cx="2871107" cy="1020534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ログイン情報の保持</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>cokkie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>？</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>

--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3FAAFE-B7CB-4456-A194-0C50D7764FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F3CA3-930B-40F0-AC81-B9F2A39D49C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
     <sheet name="ソフト構造" sheetId="3" r:id="rId2"/>
     <sheet name="ユーザー情報" sheetId="4" r:id="rId3"/>
+    <sheet name="認証" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1225,15 +1226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>231324</xdr:colOff>
+      <xdr:colOff>136074</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>36057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
       <xdr:colOff>40824</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1251,8 +1252,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="16264959" y="2372065"/>
-          <a:ext cx="3011943" cy="2258786"/>
+          <a:off x="14536852" y="4004922"/>
+          <a:ext cx="6372907" cy="2354036"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2210,8 +2211,8 @@
     <xdr:to>
       <xdr:col>76</xdr:col>
       <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2227,7 +2228,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15689036" y="462644"/>
-          <a:ext cx="2966357" cy="3483428"/>
+          <a:ext cx="2966357" cy="4517570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2368,15 +2369,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2391,7 +2392,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15770679" y="5007429"/>
+          <a:off x="15675429" y="8368393"/>
           <a:ext cx="1741715" cy="530678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2442,15 +2443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>149681</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>231320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>81645</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:colOff>54431</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>231324</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2465,7 +2466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15825110" y="4150177"/>
+          <a:off x="15729860" y="7511141"/>
           <a:ext cx="1646464" cy="340179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3503,9 +3504,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>118382</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3521,7 +3522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7511143" y="3769178"/>
-          <a:ext cx="1424668" cy="1949903"/>
+          <a:ext cx="1428750" cy="2149929"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3574,6 +3575,16 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>トークン情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
             <a:t>フロント・バック間のデータ形式</a:t>
           </a:r>
         </a:p>
@@ -3654,7 +3665,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>ユーザー情報</a:t>
+            <a:t>ユーザー情報・トークン情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
         </a:p>
@@ -3682,9 +3693,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>186418</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>208190</xdr:rowOff>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3700,7 +3711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17131393" y="952501"/>
-          <a:ext cx="1424668" cy="1949903"/>
+          <a:ext cx="1455964" cy="3129642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3752,6 +3763,13 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>トークン情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
             <a:t>ORM</a:t>
           </a:r>
@@ -3768,6 +3786,12 @@
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
         </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -3775,15 +3799,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>217716</xdr:rowOff>
+      <xdr:colOff>136073</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
-      <xdr:colOff>231324</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>108859</xdr:rowOff>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3800,12 +3824,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="16206109" y="3347357"/>
-          <a:ext cx="2095500" cy="1224645"/>
+          <a:off x="15015483" y="5599341"/>
+          <a:ext cx="4299857" cy="1238249"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 65584"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -3834,16 +3858,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>217713</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>185552</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>201632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>115042</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3858,8 +3882,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12219214" y="7810499"/>
-          <a:ext cx="2871107" cy="1319893"/>
+          <a:off x="7288481" y="9998775"/>
+          <a:ext cx="2868632" cy="1319893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3915,16 +3939,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>217717</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>35874</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:colOff>210292</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3939,8 +3963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7007679" y="8300360"/>
-          <a:ext cx="2871107" cy="1020534"/>
+          <a:off x="7067056" y="11395367"/>
+          <a:ext cx="2841418" cy="1010638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4085,23 +4109,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>40820</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>4082</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="テキスト ボックス 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283A115D-16CF-49EC-8BE3-D9508C1D1E41}"/>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8389518B-3589-4267-9B6D-334418704B9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4109,8 +4133,235 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10409464" y="9307286"/>
-          <a:ext cx="2871107" cy="1020534"/>
+          <a:off x="12722678" y="6354536"/>
+          <a:ext cx="2466975" cy="5660571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>services</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ビジネスロジック担当</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B56FC8A-8ABC-4CD8-9EF6-CBC67AA19526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11443607" y="8327571"/>
+          <a:ext cx="1170215" cy="321129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>トークン認証</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>208188</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>35379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B0B30D-0A23-46BA-92EE-7CACDCE6BD9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12953999" y="7116536"/>
+          <a:ext cx="1949903" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>auth.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>トークン保存・認証処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>204109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6BC256-82EC-4AAB-AADC-73C32EB3B31A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12654642" y="8286752"/>
+          <a:ext cx="2490107" cy="952498"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4145,20 +4396,179 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ログイン情報の保持</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>cokkie</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>？</a:t>
-          </a:r>
+            <a:t>router</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>と分けるべきか否か</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t>責務が散らばるか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A9DF92-DDF7-460A-9B8F-A01CF3E5BE5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7102929" y="6667500"/>
+          <a:ext cx="2408464" cy="2449285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>middleware</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>149677</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>68034</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0185423-6D61-450E-BDB5-16F0F09C44DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7252606" y="7021286"/>
+          <a:ext cx="1632857" cy="1823357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>auth.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>トークンの認証</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5328,6 +5738,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>77141</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>182296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD59E90E-B67A-8B2A-50C6-E94D8CB66974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="238125"/>
+          <a:ext cx="6744641" cy="9469171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5609,7 +6068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33D9D01-FCD6-466E-A65E-7EA43CAF5594}">
   <dimension ref="C1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ39" sqref="AQ39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
@@ -5635,7 +6096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5531C4-1F77-409C-8572-78A77EDB26F3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
@@ -5645,4 +6106,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F911895E-120D-4375-B13E-3B48B131C18D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9F3CA3-930B-40F0-AC81-B9F2A39D49C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E605B5-342A-4031-BDEB-41239B9AC10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
@@ -5742,16 +5742,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>77141</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>172391</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>182296</xdr:rowOff>
+      <xdr:rowOff>134671</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5774,7 +5774,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="238125"/>
+          <a:off x="1047750" y="190500"/>
           <a:ext cx="6744641" cy="9469171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6068,7 +6068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33D9D01-FCD6-466E-A65E-7EA43CAF5594}">
   <dimension ref="C1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AQ39" sqref="AQ39"/>
     </sheetView>
   </sheetViews>
@@ -6112,9 +6112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F911895E-120D-4375-B13E-3B48B131C18D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData/>

--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E605B5-342A-4031-BDEB-41239B9AC10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC529ECE-347E-4056-8F38-51A7AB8E15D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
     <sheet name="ソフト構造" sheetId="3" r:id="rId2"/>
     <sheet name="ユーザー情報" sheetId="4" r:id="rId3"/>
     <sheet name="認証" sheetId="5" r:id="rId4"/>
+    <sheet name="リフレッシュトークン" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -6112,7 +6113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F911895E-120D-4375-B13E-3B48B131C18D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData/>
@@ -6120,4 +6123,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D7DBA4-11C8-4466-85AF-00D57FCB71B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC529ECE-347E-4056-8F38-51A7AB8E15D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB2B733-A26F-451E-B36E-EFBDA1E46C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
     <sheet name="ソフト構造" sheetId="3" r:id="rId2"/>
     <sheet name="ユーザー情報" sheetId="4" r:id="rId3"/>
     <sheet name="認証" sheetId="5" r:id="rId4"/>
-    <sheet name="リフレッシュトークン" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5785,6 +5784,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F7183B-A8D6-4D67-4B9C-D686BFA22425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="10401300"/>
+          <a:ext cx="6524625" cy="4162425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リフレッシュトークン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>invalidate_token(db, at_id, rt_id)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>db: db</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アクセス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>at_id :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>rt_id :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リフレッシュトークンから新しい</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6113,8 +6244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F911895E-120D-4375-B13E-3B48B131C18D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
@@ -6123,19 +6254,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D7DBA4-11C8-4466-85AF-00D57FCB71B9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB2B733-A26F-451E-B36E-EFBDA1E46C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A15D1A-D0A3-4248-AE8B-357E251D9E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
@@ -5784,25 +5784,69 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>61</xdr:row>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>231118</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33527660-E75D-618A-E7DC-F1FE78EB237D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="10687050"/>
+          <a:ext cx="5707993" cy="12668250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F7183B-A8D6-4D67-4B9C-D686BFA22425}"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4635CE11-F1E8-D376-C559-6EACADE1CCDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5810,14 +5854,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="10401300"/>
-          <a:ext cx="6524625" cy="4162425"/>
+          <a:off x="5124451" y="10991850"/>
+          <a:ext cx="1276350" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -5847,69 +5894,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リフレッシュトークン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>invalidate_token(db, at_id, rt_id)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>db: db</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>アクセス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>at_id :</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>rt_id :</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リフレッシュトークンから新しい</a:t>
+            <a:t>ミドルウェア</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6244,8 +6229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F911895E-120D-4375-B13E-3B48B131C18D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="AL51" sqref="AL51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>

--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A15D1A-D0A3-4248-AE8B-357E251D9E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A66BEA3-093C-4BE2-B4F1-B80B82915C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
     <sheet name="ソフト構造" sheetId="3" r:id="rId2"/>
     <sheet name="ユーザー情報" sheetId="4" r:id="rId3"/>
-    <sheet name="認証" sheetId="5" r:id="rId4"/>
+    <sheet name="認証" sheetId="7" r:id="rId4"/>
+    <sheet name="00_認証" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2868,16 +2869,1439 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13606</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293BA3E4-F039-49C8-B887-9846D3857A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="251731" y="507545"/>
+          <a:ext cx="1231447" cy="2805793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>HTML</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138791</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4081</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9E21FD-5168-4CC6-9543-917451363C90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2871107" y="503464"/>
+          <a:ext cx="1792059" cy="2834367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>app.js</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="コネクタ: カギ線 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08B4D6F-080B-42E2-8BC2-A1E4B14A3928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1483178" y="1907039"/>
+          <a:ext cx="1387929" cy="13608"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3253AEA-A5F1-452A-9F6D-1B4F51B54B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1564822" y="521152"/>
+          <a:ext cx="1149804" cy="2724152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>ID,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>セレクタ等で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>情報取得。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>イベントに関数登録。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC000E4D-DDBF-4181-BCBF-D4D86E2FD6EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7511143" y="3769178"/>
+          <a:ext cx="1428750" cy="2149929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>auth.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ユーザー情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>トークン情報</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>フロント・バック間のデータ形式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>23132</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E932F2-1EE4-4613-8DD1-252F44BB4212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13004346" y="3442606"/>
+          <a:ext cx="1922689" cy="1945823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>auth.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ユーザー情報・トークン情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CRUD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A396E44E-4C2C-44CF-B73B-19885037ED74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17131393" y="952501"/>
+          <a:ext cx="1455964" cy="3129642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>auth.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ユーザー情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>トークン情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>ORM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>用の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>データ型</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>136073</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="コネクタ: カギ線 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC631E57-9FBB-4C1F-BF7C-7629E4749603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="15015483" y="5599341"/>
+          <a:ext cx="4299857" cy="1238249"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>185552</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>201633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D614CD4-44A3-4E86-9E75-C09F61270416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7288481" y="9998776"/>
+          <a:ext cx="4658590" cy="1254332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>認証どうするか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>flask</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ではデコレータで各ページへの遷移時に都度確認</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>→ミドルウェアで実現。指定したページに対して実行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>212767</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>142257</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E33CF2-55FF-4429-AA7D-916925E05261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315696" y="11511646"/>
+          <a:ext cx="2868632" cy="1020534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ログイン中の各ページの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>は？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>名含む形が一般的か？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>220436</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>175533</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2621FD-E3BC-4D2B-9686-7279598DA9E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10017579" y="3744685"/>
+          <a:ext cx="1424668" cy="1949903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>auth.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>認証ページのルーティング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>4082</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8389518B-3589-4267-9B6D-334418704B9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12722678" y="6354536"/>
+          <a:ext cx="2466975" cy="5660571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>services</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>ビジネスロジック担当</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B56FC8A-8ABC-4CD8-9EF6-CBC67AA19526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11443607" y="8327571"/>
+          <a:ext cx="1170215" cy="321129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>トークン認証</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>208188</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>35379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B0B30D-0A23-46BA-92EE-7CACDCE6BD9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12953999" y="7116536"/>
+          <a:ext cx="1949903" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>auth.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>トークン保存・認証処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A9DF92-DDF7-460A-9B8F-A01CF3E5BE5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7102929" y="6667500"/>
+          <a:ext cx="2408464" cy="2449285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>middleware</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>149677</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>68034</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0185423-6D61-450E-BDB5-16F0F09C44DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7252606" y="7021286"/>
+          <a:ext cx="1632857" cy="1823357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>auth.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>トークンの認証</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>163284</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33895118-3CEC-4B11-93AB-67B690AEBDDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5551713" y="258537"/>
+          <a:ext cx="1387929" cy="5636081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>middleware</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF39BD6-ABBB-4C78-AA8E-A2948AEA8C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5728607" y="802821"/>
+          <a:ext cx="1047749" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>auth.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>認証情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>108856</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>108856</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>231322</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2892,8 +4316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5347606" y="1006929"/>
-          <a:ext cx="1428750" cy="1843768"/>
+          <a:off x="5497285" y="1524000"/>
+          <a:ext cx="1469571" cy="1156607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2977,1598 +4401,6 @@
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>13606</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>31295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>217713</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293BA3E4-F039-49C8-B887-9846D3857A26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="251731" y="507545"/>
-          <a:ext cx="1231447" cy="2805793"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>HTML</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>138791</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4081</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9E21FD-5168-4CC6-9543-917451363C90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2871107" y="503464"/>
-          <a:ext cx="1792059" cy="2834367"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>app.js</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2039</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>15647</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="コネクタ: カギ線 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08B4D6F-080B-42E2-8BC2-A1E4B14A3928}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="3"/>
-          <a:endCxn id="28" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1483178" y="1907039"/>
-          <a:ext cx="1387929" cy="13608"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>44902</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3253AEA-A5F1-452A-9F6D-1B4F51B54B70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1564822" y="521152"/>
-          <a:ext cx="1149804" cy="2724152"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>ID,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>CSS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>セレクタ等で</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>情報取得。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>イベントに関数登録。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>204109</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="テキスト ボックス 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A609C15B-3B06-6DD6-D669-FA6B985FF1D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3660322" y="3075215"/>
-          <a:ext cx="1442358" cy="639536"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>チェックボックス</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92F7704-E635-4642-831E-99D9FCEAF8E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7456714" y="2830286"/>
-          <a:ext cx="1442358" cy="639536"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>チェックボックス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>情報</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>231321</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A4E719-DD25-4806-9615-10BC9D922CE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15811500" y="2775856"/>
-          <a:ext cx="1442358" cy="639536"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>チェックボックス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>情報</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC000E4D-DDBF-4181-BCBF-D4D86E2FD6EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7511143" y="3769178"/>
-          <a:ext cx="1428750" cy="2149929"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>auth.py</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>ユーザー情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>トークン情報</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>フロント・バック間のデータ形式</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>23132</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>13606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>231321</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E932F2-1EE4-4613-8DD1-252F44BB4212}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13004346" y="3442606"/>
-          <a:ext cx="1922689" cy="1945823"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>auth.py</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>ユーザー情報・トークン情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>CRUD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>処理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>217715</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A396E44E-4C2C-44CF-B73B-19885037ED74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17131393" y="952501"/>
-          <a:ext cx="1455964" cy="3129642"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>auth.py</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>ユーザー情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>トークン情報</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>ORM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>用の</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>データ型</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>136073</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>149680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>40823</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="コネクタ: カギ線 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC631E57-9FBB-4C1F-BF7C-7629E4749603}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="15015483" y="5599341"/>
-          <a:ext cx="4299857" cy="1238249"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>185552</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>201632</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>115042</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="テキスト ボックス 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D614CD4-44A3-4E86-9E75-C09F61270416}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7288481" y="9998775"/>
-          <a:ext cx="2868632" cy="1319893"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>認証どうするか？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>flask</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ではデコレータで各ページへの遷移時に都度確認</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>35874</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>3</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>210292</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>40823</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="テキスト ボックス 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E33CF2-55FF-4429-AA7D-916925E05261}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7067056" y="11395367"/>
-          <a:ext cx="2841418" cy="1010638"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ログイン中の各ページの</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>URL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>は？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>user</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>名含む形が一般的か？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>220436</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>70756</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>175533</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>61231</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="テキスト ボックス 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2621FD-E3BC-4D2B-9686-7279598DA9E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10017579" y="3744685"/>
-          <a:ext cx="1424668" cy="1949903"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>auth.py</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>認証ページのルーティング</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>231321</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>231322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>4082</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="テキスト ボックス 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8389518B-3589-4267-9B6D-334418704B9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12722678" y="6354536"/>
-          <a:ext cx="2466975" cy="5660571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>services</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>ビジネスロジック担当</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="テキスト ボックス 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B56FC8A-8ABC-4CD8-9EF6-CBC67AA19526}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11443607" y="8327571"/>
-          <a:ext cx="1170215" cy="321129"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>トークン認証</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>208188</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>35379</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B0B30D-0A23-46BA-92EE-7CACDCE6BD9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12953999" y="7116536"/>
-          <a:ext cx="1949903" cy="1981200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>auth.py</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>トークン保存・認証処理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>204109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>204106</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="テキスト ボックス 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6BC256-82EC-4AAB-AADC-73C32EB3B31A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12654642" y="8286752"/>
-          <a:ext cx="2490107" cy="952498"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>router</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
-            <a:t>と分けるべきか否か</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0"/>
-            <a:t>責務が散らばるか？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A9DF92-DDF7-460A-9B8F-A01CF3E5BE5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7102929" y="6667500"/>
-          <a:ext cx="2408464" cy="2449285"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>middleware</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>149677</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>68034</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0185423-6D61-450E-BDB5-16F0F09C44DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7252606" y="7021286"/>
-          <a:ext cx="1632857" cy="1823357"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>auth.py</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>トークンの認証</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5740,131 +5572,163 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 判断 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A6A060-AC96-456E-BCF0-24D6DA46B6EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000249" y="742950"/>
+          <a:ext cx="2876551" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Cokkie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にアクセストークンがあるか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>172391</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>134671</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD59E90E-B67A-8B2A-50C6-E94D8CB66974}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="コネクタ: カギ線 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2138E9-BFE9-4DD3-BE7C-72C437BAD926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2700338" y="3109913"/>
+          <a:ext cx="1447800" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD00668-A7C9-4D99-B2DF-F25CC14910E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="190500"/>
-          <a:ext cx="6744641" cy="9469171"/>
+          <a:off x="2838451" y="2400300"/>
+          <a:ext cx="457200" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>231118</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33527660-E75D-618A-E7DC-F1FE78EB237D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1190625" y="10687050"/>
-          <a:ext cx="5707993" cy="12668250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4635CE11-F1E8-D376-C559-6EACADE1CCDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5124451" y="10991850"/>
-          <a:ext cx="1276350" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -5893,9 +5757,4177 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDBBE21C-8BFB-40D7-9050-448E7432B5EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="1143000"/>
+          <a:ext cx="457200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5ED419-D2A1-43CC-9EB0-F4C8D4206675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="1571625"/>
+          <a:ext cx="2681288" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 判断 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911E014F-1A69-41D6-967D-27CB64810BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="3848100"/>
+          <a:ext cx="3524250" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ミドルウェア</a:t>
-          </a:r>
+            <a:t>アクセストークンの認証</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="コネクタ: カギ線 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29C4D0A-B04A-4B51-AEB7-AF9269B85AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2721769" y="5417344"/>
+          <a:ext cx="1162050" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC85CC1A-2A11-4BCA-ABA7-24C15DE20E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="5029200"/>
+          <a:ext cx="457200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="コネクタ: カギ線 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D33F6DA-74FE-4FB2-A8B9-09F8CF9AF11A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172075" y="4395788"/>
+          <a:ext cx="2386013" cy="1443037"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FBA6E83-8A9A-4034-999A-D444F891C16C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="4019550"/>
+          <a:ext cx="457200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 判断 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DFADD6-B3F2-48F3-9A8B-8853048A43C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629275" y="5838825"/>
+          <a:ext cx="3857626" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リフレッシュトークンは有効か？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14289</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="コネクタ: カギ線 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0876F9D1-7BDE-47DF-9C81-E1A8ADE7044A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7029451" y="7986712"/>
+          <a:ext cx="1152525" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2FDA26-E411-4288-8376-28C74F1E9410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="7524750"/>
+          <a:ext cx="457200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1F36A1-0E15-404A-8A0D-8F2C3D866CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486901" y="6648450"/>
+          <a:ext cx="1471612" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C490FB38-DC8C-4895-B1B0-5CE5586E6154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="6191250"/>
+          <a:ext cx="457200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート: 処理 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F91E2DC-1102-4A4B-AC25-41DAC24F7E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="6105525"/>
+          <a:ext cx="2238375" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>該当ページへアクセス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート: 処理 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8026AA5-FFC0-43AC-BFBF-51BA3A0D300B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="8201025"/>
+          <a:ext cx="2238375" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログインページに移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 処理 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B5F532-1BEC-40A1-995B-C590A000D704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="8610600"/>
+          <a:ext cx="2238375" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセストークンの再発行</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80964</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="コネクタ: カギ線 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F109CB4A-5E1C-47BD-9860-57AFDED2DBFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7129464" y="9734550"/>
+          <a:ext cx="1019175" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: 処理 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7FFCE3-04A5-49C4-8C2B-E90D8E49FBB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="10258425"/>
+          <a:ext cx="2238375" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>該当ページへ再アクセス</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75F8F36-7053-4626-BAF7-33994A246BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12466864" y="1129394"/>
+          <a:ext cx="8969829" cy="5646964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>画像のフローチャートを見る限り、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JWT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JSON Web Token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）を用いた認証の一般的な流れと合致していると考えられます。基本的な認証の流れを整理すると、以下のようになります。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>JWT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>を用いた認証フロー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>クライアントが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>にアクセス・トークンを持っているか確認</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もしアクセス・トークンが存在しない場合、直接リフレッシュ・トークンの確認へ進む。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>アクセス・トークンの検証</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もし有効であれば、そのままリソース（該当ページ）にアクセス。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もし無効（期限切れ、改ざんなど）であれば、リフレッシュ・トークンを確認。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>リフレッシュ・トークンの検証</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もし有効であれば、新しいアクセス・トークンを発行し、再びリソースにアクセス。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もし無効（期限切れ、改ざんなど）であれば、ログインページへリダイレクト。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>認識の確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>全体の流れは合っているか？</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>✅ 一般的な</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JWT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>認証の流れと一致しており、特に問題はありません。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>改善点や考慮点</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>リフレッシュ・トークンの検証方法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>サーバー側でブラックリスト管理をする場合、リフレッシュ・トークンの無効化を考慮する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>セキュリティ対策</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>トークンの保存方法（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HttpOnly, Secure </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>属性など）を適切に設定。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>トークンの署名検証を適切に行う（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HMAC, RSA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>など）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>エラーハンドリング</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>トークンが不正な場合のエラーレスポンスの処理。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>基本的には問題ないですが、よりセキュアな運用を意識するとより良いフローになるでしょう！</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB25C118-991F-481A-98F7-F6522F2CF0B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12562114" y="7334249"/>
+          <a:ext cx="9337222" cy="6218464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>あなたの想定している方法は、一般的な</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JWT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>認証の実装方法として十分に妥当です。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>特に </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>「アクセストークンは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>に保存し、リフレッシュトークンは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>のみに保存」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> という点について詳しく見ていきましょう。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>JWT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>の保存戦略と一般的なベストプラクティス</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>アクセストークンの保存</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>保存先</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>: Cookie + DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>（サーバー側）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>に保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>クライアントが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>へリクエストを送る際、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HttpOnly &amp; Secure </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>属性を付与して送信。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>メリット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>XSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>攻撃に対する耐性が高い（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JavaScript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>からアクセス不可）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>デメリット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CSRF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>攻撃を防ぐために、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>SameSite=Strict </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>などの対策が必要。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>に保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>サーバー側でトークンのブラックリスト管理をする場合、保存が有効。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>メリット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> セッション管理がしやすく、不正アクセスを防げる（例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ログアウト時に無効化）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>デメリット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> 読み込みのオーバーヘッドが発生するため、スケール時に工夫が必要。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>リフレッシュトークンの保存</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>保存先</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>: DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>（サーバー側のみ）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>クライアント側（ブラウザやローカルストレージ）には保存せず、完全にサーバー管理する方法は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>セキュリティ的に推奨される</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>発行時に </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>一意な</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>と紐づけて</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>に保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> し、使用後は無効化（ワンタイムリフレッシュトークン）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>メリット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>万が一トークンが漏洩しても、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>側で失効させることが可能。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>セッション固定攻撃を防ぎやすい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>強制ログアウト機能を実装しやすい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>一般的な手法と比較</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>トークン種類 保存場所 メリット デメリット アクセストークン </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>短寿命</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> (HttpOnly, Secure) XSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>耐性が高い </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CSRF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>対策が必要 アクセストークン </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>強制失効が可能 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>アクセスのオーバーヘッド リフレッシュトークン </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>長寿命</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>のみ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> セキュリティが高い すべてのリクエストで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>チェックが必要 あなたの方法は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>「アクセストークンをクライアント・サーバー両方で管理し、リフレッシュトークンはサーバーでのみ管理する」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> という点で、一般的なセキュリティベストプラクティスと一致しています。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もし </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>よりスケーラブルな設計を考慮するなら、リフレッシュトークンの状態管理を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Redis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>などのインメモリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>で行う</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> という手法も有効です。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>総合的に、あなたの設計は正しい方向性にあり、実運用でも十分使える設計になっています！ 💡</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C034F566-E4AD-8503-D379-A1F37F8959C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8626929" y="435429"/>
+          <a:ext cx="2979964" cy="1496785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初回作成時と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>によるレビュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 判断 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE4FBEB-6E7D-767D-77F1-388C0CD0BDE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000249" y="742950"/>
+          <a:ext cx="2876551" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Cokkie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にアクセストークンがあるか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="コネクタ: カギ線 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC783EC-712B-FE02-FF4D-4536DAD17329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2700338" y="3109913"/>
+          <a:ext cx="1447800" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4062202B-1A67-2DD4-08F7-F18E96F9C1D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838451" y="2400300"/>
+          <a:ext cx="457200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CD18F6-7EC8-4785-A5F4-46166F9C491F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4924425" y="1143000"/>
+          <a:ext cx="457200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3087A0-EF98-482D-915C-D0BB9B30E3EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="1571625"/>
+          <a:ext cx="2681288" cy="4267200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 判断 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1A3016-56C2-408B-9F6A-5112C7A8F3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="3848100"/>
+          <a:ext cx="3524250" cy="1095375"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アクセストークンの認証</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452438</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC23F7E2-F661-480D-B52C-EB70ACB94987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2721769" y="5417344"/>
+          <a:ext cx="1162050" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE07C6D-4E98-4F6A-BAFD-8B5946C5B5AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="5029200"/>
+          <a:ext cx="457200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A563CE2-7085-4FBB-A036-14894260662B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172075" y="4395788"/>
+          <a:ext cx="2386013" cy="1443037"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78023159-9220-4FDD-AB4F-E3253D4B6F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="4019550"/>
+          <a:ext cx="457200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="フローチャート: 判断 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8632888-74BF-4947-95EB-D75EC3D6C6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629275" y="5838825"/>
+          <a:ext cx="3857626" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リフレッシュトークンは有効か？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14289</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="コネクタ: カギ線 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071210B3-3004-4FE4-87F2-05A5514D78C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="56" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7029451" y="7986712"/>
+          <a:ext cx="1152525" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925C91E8-1D67-437F-93B0-58B752898FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="7524750"/>
+          <a:ext cx="457200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="コネクタ: カギ線 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2D9D71-B28D-4BA2-B5DD-1107CD3F0327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486901" y="6648450"/>
+          <a:ext cx="1471612" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BAEEFF-796C-43CA-8978-A1B875884CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572625" y="6191250"/>
+          <a:ext cx="457200" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="フローチャート: 処理 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50CA61A5-8C2E-0128-741A-EE344B59D39A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="6105525"/>
+          <a:ext cx="2238375" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>該当ページへアクセス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="フローチャート: 処理 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8CF16C-C228-4B61-8153-417EC1D66DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="8201025"/>
+          <a:ext cx="2238375" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログインページに移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="フローチャート: 処理 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E987218A-884C-4AAC-BF04-E71A100161F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="8610600"/>
+          <a:ext cx="2238375" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセストークンの再発行</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80964</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="コネクタ: カギ線 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CC0836-8020-4118-B94B-F5C3786AB4CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="62" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7129464" y="9734550"/>
+          <a:ext cx="1019175" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="フローチャート: 処理 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA668AAF-05A8-4CD4-9D40-3D99FD53C795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="10258425"/>
+          <a:ext cx="2238375" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>該当ページへ再アクセス</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB970B2-1863-D3EC-FD72-2E7AE29A12A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12368893" y="1156608"/>
+          <a:ext cx="8899071" cy="5810250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>画像のフローチャートを見る限り、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JWT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JSON Web Token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>）を用いた認証の一般的な流れと合致していると考えられます。基本的な認証の流れを整理すると、以下のようになります。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>JWT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>を用いた認証フロー</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>クライアントが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>にアクセス・トークンを持っているか確認</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もしアクセス・トークンが存在しない場合、直接リフレッシュ・トークンの確認へ進む。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>アクセス・トークンの検証</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もし有効であれば、そのままリソース（該当ページ）にアクセス。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もし無効（期限切れ、改ざんなど）であれば、リフレッシュ・トークンを確認。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>リフレッシュ・トークンの検証</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もし有効であれば、新しいアクセス・トークンを発行し、再びリソースにアクセス。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もし無効（期限切れ、改ざんなど）であれば、ログインページへリダイレクト。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>認識の確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>全体の流れは合っているか？</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>✅ 一般的な</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JWT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>認証の流れと一致しており、特に問題はありません。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>改善点や考慮点</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>リフレッシュ・トークンの検証方法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>サーバー側でブラックリスト管理をする場合、リフレッシュ・トークンの無効化を考慮する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>セキュリティ対策</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>トークンの保存方法（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>Cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>の </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HttpOnly, Secure </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>属性など）を適切に設定。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>トークンの署名検証を適切に行う（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HMAC, RSA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>など）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>エラーハンドリング</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="2"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>トークンが不正な場合のエラーレスポンスの処理。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>基本的には問題ないですが、よりセキュアな運用を意識するとより良いフローになるでしょう！</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>217713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBD2E22-15B8-518A-4337-A5FA80DA4519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12464143" y="7538356"/>
+          <a:ext cx="9266464" cy="6395357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>あなたの想定している方法は、一般的な</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JWT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>認証の実装方法として十分に妥当です。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>特に </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>「アクセストークンは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>に保存し、リフレッシュトークンは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>のみに保存」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> という点について詳しく見ていきましょう。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>JWT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>の保存戦略と一般的なベストプラクティス</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>アクセストークンの保存</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>保存先</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>: Cookie + DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>（サーバー側）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>に保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>クライアントが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>へリクエストを送る際、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>HttpOnly &amp; Secure </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>属性を付与して送信。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>メリット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>XSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>攻撃に対する耐性が高い（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>JavaScript</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>からアクセス不可）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>デメリット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CSRF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>攻撃を防ぐために、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>SameSite=Strict </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>などの対策が必要。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>に保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>サーバー側でトークンのブラックリスト管理をする場合、保存が有効。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>メリット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> セッション管理がしやすく、不正アクセスを防げる（例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ログアウト時に無効化）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>デメリット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> 読み込みのオーバーヘッドが発生するため、スケール時に工夫が必要。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>リフレッシュトークンの保存</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>✅ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>保存先</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>: DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>（サーバー側のみ）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>クライアント側（ブラウザやローカルストレージ）には保存せず、完全にサーバー管理する方法は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>セキュリティ的に推奨される</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>発行時に </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>一意な</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>と紐づけて</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>に保存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> し、使用後は無効化（ワンタイムリフレッシュトークン）。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>メリット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>万が一トークンが漏洩しても、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>側で失効させることが可能。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>セッション固定攻撃を防ぎやすい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>強制ログアウト機能を実装しやすい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>一般的な手法と比較</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>トークン種類 保存場所 メリット デメリット アクセストークン </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>短寿命</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> (HttpOnly, Secure) XSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>耐性が高い </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>CSRF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>対策が必要 アクセストークン </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>強制失効が可能 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>アクセスのオーバーヘッド リフレッシュトークン </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>長寿命</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>のみ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> セキュリティが高い すべてのリクエストで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>チェックが必要 あなたの方法は </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>「アクセストークンをクライアント・サーバー両方で管理し、リフレッシュトークンはサーバーでのみ管理する」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> という点で、一般的なセキュリティベストプラクティスと一致しています。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>もし </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>よりスケーラブルな設計を考慮するなら、リフレッシュトークンの状態管理を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>Redis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>などのインメモリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+            <a:t>で行う</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> という手法も有効です。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>総合的に、あなたの設計は正しい方向性にあり、実運用でも十分使える設計になっています！ 💡</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6169,7 +10201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AI36" sqref="AI36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData>
@@ -6185,9 +10219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33D9D01-FCD6-466E-A65E-7EA43CAF5594}">
   <dimension ref="C1:AC1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ39" sqref="AQ39"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
@@ -6214,7 +10246,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
@@ -6226,14 +10258,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F911895E-120D-4375-B13E-3B48B131C18D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B5D1F2-A599-4FB7-9D3B-EFB28E062F11}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="AL51" sqref="AL51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC732FBA-5BA6-4923-BA13-6A68905DB682}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A66BEA3-093C-4BE2-B4F1-B80B82915C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3712B7-A2B2-4D4A-8E40-ED4D6A85E57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
     <sheet name="ソフト構造" sheetId="3" r:id="rId2"/>
     <sheet name="ユーザー情報" sheetId="4" r:id="rId3"/>
     <sheet name="認証" sheetId="7" r:id="rId4"/>
-    <sheet name="00_認証" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4413,16 +4412,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4437,7 +4436,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12782551" y="3133726"/>
+          <a:off x="13611226" y="2952751"/>
           <a:ext cx="2143124" cy="2152648"/>
           <a:chOff x="2619376" y="1181101"/>
           <a:chExt cx="2143124" cy="2152648"/>
@@ -4844,16 +4843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4868,7 +4867,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10877550" y="6181725"/>
+          <a:off x="15725775" y="5867400"/>
           <a:ext cx="4591050" cy="3867150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5014,16 +5013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5038,7 +5037,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12144374" y="971550"/>
+          <a:off x="13658849" y="952500"/>
           <a:ext cx="3343275" cy="1581150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5120,15 +5119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>123827</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5143,10 +5142,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7391400" y="1466850"/>
-          <a:ext cx="2609850" cy="2343150"/>
-          <a:chOff x="6677025" y="1181100"/>
-          <a:chExt cx="2609850" cy="2343150"/>
+          <a:off x="7400925" y="1200153"/>
+          <a:ext cx="2724152" cy="2352672"/>
+          <a:chOff x="6677025" y="1432125"/>
+          <a:chExt cx="2609852" cy="1347886"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -5162,8 +5161,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6677025" y="1181100"/>
-            <a:ext cx="2609850" cy="495300"/>
+            <a:off x="6677026" y="1432125"/>
+            <a:ext cx="2600723" cy="251024"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5221,7 +5220,738 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6677025" y="1676400"/>
-            <a:ext cx="2609850" cy="1076326"/>
+            <a:ext cx="2609852" cy="1103611"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ユーザー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID:user_id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>ユーザー名</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>:username</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>パスワード</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>:password</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>アクセストークン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>relationship</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>リフレッシトークン</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>relationship</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>208425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03D7EE1-96DD-F9E0-0553-109F73559F8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5353050" y="2589675"/>
+          <a:ext cx="2047874" cy="294883"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFED861F-4EE1-6A4E-6071-DE7525BCA3EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457826" y="2581275"/>
+          <a:ext cx="647700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0..*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C089599-FAAE-4406-A3EC-71F34908ADE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="2209800"/>
+          <a:ext cx="523875" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1..*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="コネクタ: カギ線 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA029E42-CA5D-4431-9669-70908BEB8E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7503320" y="4236244"/>
+          <a:ext cx="1943100" cy="576263"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1D24C6-85A7-482B-AFAC-7A352DB95DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8353425" y="3667125"/>
+          <a:ext cx="352425" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBA9A4A-D807-4E3E-88C7-1F521699A998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="5114925"/>
+          <a:ext cx="523875" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1..*</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>228597</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214F0C92-5FC7-472A-B40D-8295B90C5229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6829425" y="5495925"/>
+          <a:ext cx="2724152" cy="2352672"/>
+          <a:chOff x="6677025" y="1432125"/>
+          <a:chExt cx="2609852" cy="1347886"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="テキスト ボックス 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F66949-1CE1-D3EA-D57E-680D9274D7D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6677026" y="1432125"/>
+            <a:ext cx="2600723" cy="251024"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>UserAccessToken</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキスト ボックス 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8048E749-0144-70F0-0FC0-4E76D00C166B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6677025" y="1676400"/>
+            <a:ext cx="2609852" cy="1103611"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5262,10 +5992,32 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>アクセストークンの</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>ID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>ユーザー</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>ID:user_id</a:t>
             </a:r>
           </a:p>
@@ -5276,12 +6028,9 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-              <a:t>ユーザー名</a:t>
+              <a:t>生成日</a:t>
             </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-              <a:t>:username</a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
           </a:p>
           <a:p>
             <a:r>
@@ -5290,22 +6039,243 @@
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-              <a:t>パスワード</a:t>
+              <a:t>トークン有効期限</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>トークン有効</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>無効</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>ユーザー</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-              <a:t>:password</a:t>
+              <a:t>(</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>relationship</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>123827</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>208425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FEB2E3-5DF5-4059-BB2A-760F2A542D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125077" y="2589675"/>
+          <a:ext cx="1395411" cy="2915775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>238122</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280588FF-7AB0-4135-8E2B-B986BC0DC20D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10163175" y="5505450"/>
+          <a:ext cx="2724152" cy="2352672"/>
+          <a:chOff x="6677025" y="1432125"/>
+          <a:chExt cx="2609852" cy="1347886"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <xdr:cNvPr id="32" name="テキスト ボックス 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD1EF24-9DDA-4D70-ADF8-C7569E2E32FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67B1063-641F-6C02-815D-BCDE71AEC44E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5313,8 +6283,73 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6677025" y="2752725"/>
-            <a:ext cx="2609850" cy="771525"/>
+            <a:off x="6677026" y="1432125"/>
+            <a:ext cx="2600723" cy="251024"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>UserRefleshToken</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="テキスト ボックス 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48AC449D-7F40-7F68-2116-7B0758FDAE11}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6677025" y="1676400"/>
+            <a:ext cx="2609852" cy="1103611"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -5351,220 +6386,195 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-              <a:t>-</a:t>
+              <a:t>+</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-              <a:t>パスワードハッシュ化処理</a:t>
+              <a:t>アクセストークンの</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-              <a:t>?()</a:t>
+              <a:t>ID</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ユーザー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ID:user_id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>生成日</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>トークン有効期限</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>トークン有効</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>無効</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+              <a:t>ユーザー</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>relationship</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>27058</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03D7EE1-96DD-F9E0-0553-109F73559F8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
-          <a:endCxn id="15" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5353050" y="2500313"/>
-          <a:ext cx="2038350" cy="384245"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFED861F-4EE1-6A4E-6071-DE7525BCA3EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5457826" y="2581275"/>
-          <a:ext cx="647700" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>0..*</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C089599-FAAE-4406-A3EC-71F34908ADE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6829425" y="2209800"/>
-          <a:ext cx="523875" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1..*</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7172,2228 +8182,6 @@
         <a:xfrm>
           <a:off x="12562114" y="7334249"/>
           <a:ext cx="9337222" cy="6218464"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>あなたの想定している方法は、一般的な</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>JWT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>認証の実装方法として十分に妥当です。</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>特に </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>「アクセストークンは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>Cookie</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>に保存し、リフレッシュトークンは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>のみに保存」</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> という点について詳しく見ていきましょう。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>JWT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>の保存戦略と一般的なベストプラクティス</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>アクセストークンの保存</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>✅ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>保存先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>: Cookie + DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>（サーバー側）</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>Cookie</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>に保存</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>クライアントが</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>API</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>へリクエストを送る際、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>HttpOnly &amp; Secure </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>属性を付与して送信。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>メリット</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>XSS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>攻撃に対する耐性が高い（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>JavaScript</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>からアクセス不可）。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>デメリット</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>CSRF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>攻撃を防ぐために、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>SameSite=Strict </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>などの対策が必要。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>に保存</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>サーバー側でトークンのブラックリスト管理をする場合、保存が有効。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>メリット</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> セッション管理がしやすく、不正アクセスを防げる（例</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>ログアウト時に無効化）。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>デメリット</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> 読み込みのオーバーヘッドが発生するため、スケール時に工夫が必要。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>リフレッシュトークンの保存</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>✅ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>保存先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>: DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>（サーバー側のみ）</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>クライアント側（ブラウザやローカルストレージ）には保存せず、完全にサーバー管理する方法は </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>セキュリティ的に推奨される</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>発行時に </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>一意な</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>と紐づけて</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>に保存</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> し、使用後は無効化（ワンタイムリフレッシュトークン）。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>メリット</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>万が一トークンが漏洩しても、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>側で失効させることが可能。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>セッション固定攻撃を防ぎやすい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>強制ログアウト機能を実装しやすい。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>一般的な手法と比較</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>トークン種類 保存場所 メリット デメリット アクセストークン </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>短寿命</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>) </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>Cookie</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> (HttpOnly, Secure) XSS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>耐性が高い </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>CSRF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>対策が必要 アクセストークン </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>強制失効が可能 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>アクセスのオーバーヘッド リフレッシュトークン </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>長寿命</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>) </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>のみ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> セキュリティが高い すべてのリクエストで</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>チェックが必要 あなたの方法は </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>「アクセストークンをクライアント・サーバー両方で管理し、リフレッシュトークンはサーバーでのみ管理する」</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> という点で、一般的なセキュリティベストプラクティスと一致しています。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>もし </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>よりスケーラブルな設計を考慮するなら、リフレッシュトークンの状態管理を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>Redis</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>などのインメモリ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>で行う</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> という手法も有効です。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>総合的に、あなたの設計は正しい方向性にあり、実運用でも十分使える設計になっています！ 💡</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C034F566-E4AD-8503-D379-A1F37F8959C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8626929" y="435429"/>
-          <a:ext cx="2979964" cy="1496785"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>初回作成時と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>AI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>によるレビュー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート: 判断 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE4FBEB-6E7D-767D-77F1-388C0CD0BDE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2000249" y="742950"/>
-          <a:ext cx="2876551" cy="1657350"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Cokkie</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>にアクセストークンがあるか？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="コネクタ: カギ線 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC783EC-712B-FE02-FF4D-4536DAD17329}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2700338" y="3109913"/>
-          <a:ext cx="1447800" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4062202B-1A67-2DD4-08F7-F18E96F9C1D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2838451" y="2400300"/>
-          <a:ext cx="457200" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Yes</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CD18F6-7EC8-4785-A5F4-46166F9C491F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4924425" y="1143000"/>
-          <a:ext cx="457200" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>No</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3087A0-EF98-482D-915C-D0BB9B30E3EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="32" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="1571625"/>
-          <a:ext cx="2681288" cy="4267200"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="フローチャート: 判断 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1A3016-56C2-408B-9F6A-5112C7A8F3D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1647825" y="3848100"/>
-          <a:ext cx="3524250" cy="1095375"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>アクセストークンの認証</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC23F7E2-F661-480D-B52C-EB70ACB94987}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="13" idx="2"/>
-          <a:endCxn id="52" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2721769" y="5417344"/>
-          <a:ext cx="1162050" cy="214312"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE07C6D-4E98-4F6A-BAFD-8B5946C5B5AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2800350" y="5029200"/>
-          <a:ext cx="457200" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>OK</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A563CE2-7085-4FBB-A036-14894260662B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="3"/>
-          <a:endCxn id="32" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5172075" y="4395788"/>
-          <a:ext cx="2386013" cy="1443037"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="テキスト ボックス 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78023159-9220-4FDD-AB4F-E3253D4B6F42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5067300" y="4019550"/>
-          <a:ext cx="457200" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>NG</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="フローチャート: 判断 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8632888-74BF-4947-95EB-D75EC3D6C6FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5629275" y="5838825"/>
-          <a:ext cx="3857626" cy="1619250"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>リフレッシュトークンは有効か？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="コネクタ: カギ線 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071210B3-3004-4FE4-87F2-05A5514D78C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="32" idx="2"/>
-          <a:endCxn id="56" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7029451" y="7986712"/>
-          <a:ext cx="1152525" cy="95250"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925C91E8-1D67-437F-93B0-58B752898FEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6962775" y="7524750"/>
-          <a:ext cx="457200" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Yes</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>671513</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="コネクタ: カギ線 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2D9D71-B28D-4BA2-B5DD-1107CD3F0327}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="3"/>
-          <a:endCxn id="54" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9486901" y="6648450"/>
-          <a:ext cx="1471612" cy="1552575"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BAEEFF-796C-43CA-8978-A1B875884CE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9572625" y="6191250"/>
-          <a:ext cx="457200" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>No</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="フローチャート: 処理 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50CA61A5-8C2E-0128-741A-EE344B59D39A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2076450" y="6105525"/>
-          <a:ext cx="2238375" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>該当ページへアクセス</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="フローチャート: 処理 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8CF16C-C228-4B61-8153-417EC1D66DF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9839325" y="8201025"/>
-          <a:ext cx="2238375" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログインページに移行</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="フローチャート: 処理 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E987218A-884C-4AAC-BF04-E71A100161F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6534150" y="8610600"/>
-          <a:ext cx="2238375" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>アクセストークンの再発行</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>80964</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="コネクタ: カギ線 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CC0836-8020-4118-B94B-F5C3786AB4CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="56" idx="2"/>
-          <a:endCxn id="62" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7129464" y="9734550"/>
-          <a:ext cx="1019175" cy="28575"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="フローチャート: 処理 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA668AAF-05A8-4CD4-9D40-3D99FD53C795}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6505575" y="10258425"/>
-          <a:ext cx="2238375" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>該当ページへ再アクセス</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176894</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="テキスト ボックス 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB970B2-1863-D3EC-FD72-2E7AE29A12A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12368893" y="1156608"/>
-          <a:ext cx="8899071" cy="5810250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>画像のフローチャートを見る限り、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>JWT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>JSON Web Token</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>）を用いた認証の一般的な流れと合致していると考えられます。基本的な認証の流れを整理すると、以下のようになります。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>JWT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>を用いた認証フロー</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>クライアントが</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
-            <a:t>Cookie</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>にアクセス・トークンを持っているか確認</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>もしアクセス・トークンが存在しない場合、直接リフレッシュ・トークンの確認へ進む。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>アクセス・トークンの検証</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>もし有効であれば、そのままリソース（該当ページ）にアクセス。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>もし無効（期限切れ、改ざんなど）であれば、リフレッシュ・トークンを確認。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>リフレッシュ・トークンの検証</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>もし有効であれば、新しいアクセス・トークンを発行し、再びリソースにアクセス。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>もし無効（期限切れ、改ざんなど）であれば、ログインページへリダイレクト。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>認識の確認</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>全体の流れは合っているか？</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>✅ 一般的な</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>JWT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>認証の流れと一致しており、特に問題はありません。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>改善点や考慮点</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>リフレッシュ・トークンの検証方法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="2"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>サーバー側でブラックリスト管理をする場合、リフレッシュ・トークンの無効化を考慮する。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>セキュリティ対策</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="2"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>トークンの保存方法（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>Cookie</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>の </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>HttpOnly, Secure </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>属性など）を適切に設定。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="2"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>トークンの署名検証を適切に行う（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>HMAC, RSA </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>など）。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>エラーハンドリング</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="2"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>トークンが不正な場合のエラーレスポンスの処理。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>基本的には問題ないですが、よりセキュアな運用を意識するとより良いフローになるでしょう！</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>639536</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>217713</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="テキスト ボックス 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBD2E22-15B8-518A-4337-A5FA80DA4519}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12464143" y="7538356"/>
-          <a:ext cx="9266464" cy="6395357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10245,9 +9033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5531C4-1F77-409C-8572-78A77EDB26F3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData/>
@@ -10269,20 +9055,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC732FBA-5BA6-4923-BA13-6A68905DB682}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/設計書_FastAPIToDo.xlsx
+++ b/doc/設計書_FastAPIToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\FastAPIToDo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3712B7-A2B2-4D4A-8E40-ED4D6A85E57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEB9A7B-CC55-4766-944B-1E035BC7AB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
@@ -9033,7 +9033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5531C4-1F77-409C-8572-78A77EDB26F3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData/>
@@ -9047,7 +9049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B5D1F2-A599-4FB7-9D3B-EFB28E062F11}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
